--- a/tests/bin/COUNTER_workbooks_for_tests/3_2019.xlsx
+++ b/tests/bin/COUNTER_workbooks_for_tests/3_2019.xlsx
@@ -296,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -317,8 +317,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +348,12 @@
         <fgColor rgb="FFBCD2DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF578FAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,9 +367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -403,6 +416,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,433 +719,433 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36" style="14" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="14" customWidth="1"/>
-    <col min="11" max="22" width="5.42578125" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="2" width="36" style="13" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11" max="22" width="5.42578125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
         <v>2</v>
       </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
         <v>2</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>6</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>8</v>
       </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
         <v>6</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <v>6</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <v>4</v>
       </c>
-      <c r="U10" s="18">
-        <v>0</v>
-      </c>
-      <c r="V10" s="18">
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
         <v>2</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>4</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <v>2</v>
       </c>
-      <c r="P11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <v>0</v>
-      </c>
-      <c r="S11" s="18">
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
         <v>8</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <v>4</v>
       </c>
-      <c r="U11" s="18">
-        <v>0</v>
-      </c>
-      <c r="V11" s="18">
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
         <v>6</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>6</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>36</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <v>16</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <v>8</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>14</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>6</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <v>18</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <v>16</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <v>18</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="17">
         <v>14</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="18">
-        <v>0</v>
-      </c>
-      <c r="S13" s="18">
-        <v>0</v>
-      </c>
-      <c r="T13" s="18">
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
         <v>4</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="17">
         <v>6</v>
       </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1138,760 +1166,760 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36" style="7" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11" max="21" width="5.42578125" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="36" style="6" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" style="6" customWidth="1"/>
+    <col min="11" max="21" width="5.42578125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="8">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <v>0</v>
-      </c>
-      <c r="U16" s="8">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8">
-        <v>0</v>
-      </c>
-      <c r="U18" s="8">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="8">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1912,298 +1940,298 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36" style="7" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11" max="16" width="5.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="246.140625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="36" style="6" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" style="6" customWidth="1"/>
+    <col min="11" max="16" width="5.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="246.140625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>176</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>12</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>14</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>26</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>24</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
         <v>14</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>14</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>30</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>18</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>8</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2291,241 +2319,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>2</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2539,597 +2567,633 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36" style="7" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11" max="21" width="5.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="36" style="6" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" style="6" customWidth="1"/>
+    <col min="10" max="21" width="9.140625" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="21">
         <v>36</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
         <v>4</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
         <v>32</v>
       </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="P10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="22">
         <v>16</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
         <v>16</v>
       </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="22">
         <v>2</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
         <v>2</v>
       </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="22">
         <v>14</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
         <v>14</v>
       </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-    </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="22">
         <v>4</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
         <v>4</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0</v>
-      </c>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-    </row>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="22">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" useFirstPageNumber="1"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <AppVersion xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Invited_Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Templates xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <NotebookType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Owner xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <FolderType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <CultureName xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C8E71F4C809694A8FE86E6AAA0E1148" ma:contentTypeVersion="27" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="538bdd8bd283fda01d62e48cde48a5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="631de70e-6607-43af-ba40-c3d3dc8be270" xmlns:ns4="c0ea4c96-c916-4356-b97d-707632d919c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7a64bf384ce539eb83742694d227d69" ns3:_="" ns4:_="">
     <xsd:import namespace="631de70e-6607-43af-ba40-c3d3dc8be270"/>
@@ -3500,32 +3564,62 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82FCA75-9C69-4ADC-815D-0F0B7F6BE8D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c0ea4c96-c916-4356-b97d-707632d919c2"/>
-    <ds:schemaRef ds:uri="631de70e-6607-43af-ba40-c3d3dc8be270"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7AE534-56F5-4478-AD1D-283DB00623BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <AppVersion xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Invited_Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Templates xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <NotebookType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Owner xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <FolderType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <CultureName xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D81E7E-A701-461B-982D-373F6BAC1D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3542,4 +3636,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7AE534-56F5-4478-AD1D-283DB00623BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82FCA75-9C69-4ADC-815D-0F0B7F6BE8D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0ea4c96-c916-4356-b97d-707632d919c2"/>
+    <ds:schemaRef ds:uri="631de70e-6607-43af-ba40-c3d3dc8be270"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/bin/COUNTER_workbooks_for_tests/3_2019.xlsx
+++ b/tests/bin/COUNTER_workbooks_for_tests/3_2019.xlsx
@@ -2539,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,11 +2550,10 @@
     <col min="1" max="2" width="36" style="7" customWidth="1"/>
     <col min="3" max="10" width="10.7109375" style="7" customWidth="1"/>
     <col min="11" max="21" width="5.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="22" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -2562,37 +2561,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2829,20 +2828,8 @@
       <c r="U11" s="8">
         <v>0</v>
       </c>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2904,20 +2891,8 @@
       <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -2979,20 +2954,8 @@
       <c r="U13" s="8">
         <v>0</v>
       </c>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-    </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3054,18 +3017,6 @@
       <c r="U14" s="8">
         <v>0</v>
       </c>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3075,61 +3026,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <AppVersion xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Invited_Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Templates xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <NotebookType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Owner xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <FolderType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-    <CultureName xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C8E71F4C809694A8FE86E6AAA0E1148" ma:contentTypeVersion="27" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="538bdd8bd283fda01d62e48cde48a5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="631de70e-6607-43af-ba40-c3d3dc8be270" xmlns:ns4="c0ea4c96-c916-4356-b97d-707632d919c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7a64bf384ce539eb83742694d227d69" ns3:_="" ns4:_="">
     <xsd:import namespace="631de70e-6607-43af-ba40-c3d3dc8be270"/>
@@ -3500,32 +3396,62 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82FCA75-9C69-4ADC-815D-0F0B7F6BE8D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c0ea4c96-c916-4356-b97d-707632d919c2"/>
-    <ds:schemaRef ds:uri="631de70e-6607-43af-ba40-c3d3dc8be270"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7AE534-56F5-4478-AD1D-283DB00623BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <AppVersion xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Invited_Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Templates xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <NotebookType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Teachers xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Owner xmlns="c0ea4c96-c916-4356-b97d-707632d919c2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Students xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <FolderType xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+    <CultureName xmlns="c0ea4c96-c916-4356-b97d-707632d919c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D81E7E-A701-461B-982D-373F6BAC1D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3542,4 +3468,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F7AE534-56F5-4478-AD1D-283DB00623BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82FCA75-9C69-4ADC-815D-0F0B7F6BE8D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0ea4c96-c916-4356-b97d-707632d919c2"/>
+    <ds:schemaRef ds:uri="631de70e-6607-43af-ba40-c3d3dc8be270"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>